--- a/getTranslationFromDeepL/paraNeedTranslate/paragraphElement-4.7.6.xlsx
+++ b/getTranslationFromDeepL/paraNeedTranslate/paragraphElement-4.7.6.xlsx
@@ -453,11 +453,7 @@
           <t>4.7.6 Intelligence Collection and Analysis Center (Intel CAC)</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>4.7.6 情报收集和分析中心(Intel CAC)</t>
-        </is>
-      </c>
+      <c r="B1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -527,7 +523,7 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>4.7.6.2 Intel CAC接收到的信息处理</t>
+          <t>4.7.6.2 Intel CAC 接收到的信息处理</t>
         </is>
       </c>
     </row>
@@ -979,7 +975,7 @@
           <t>Track error data may be specified in two formats: tabular or curve fit. Tabular error data represent one-sigma error variances as a function of time since missile burnout. The variances are specified for both position and velocity in missile body-centered coordinates. The time the message is to be generated is computed and the data in each coordinated axis are interpolated from the tables for that time. The interpolated error variances are then used to define the track covariance.</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="1" t="inlineStr">
         <is>
           <t>轨迹误差数据可以用两种格式指定：表格或曲线拟合。表格式的误差数据表示导弹烧毁后作为时间函数的一西格玛误差方差。差异是以导弹弹体为中心的坐标，同时指定位置和速度。计算信息产生的时间，并从表中内插该时间的每个坐标轴的数据。然后用插值后的误差方差来定义轨道协方差。</t>
         </is>
@@ -991,7 +987,7 @@
           <t>The curve fit format represents the coefficients of an exponential function that define the missile position and velocity errors for a specified period of time. The curve-fit-error coefficients are used to compute the missile track variance as a function of time since missile burnout based on the formula:</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="1" t="inlineStr">
         <is>
           <t>曲线拟合格式表示指数函数的系数，它定义了指定时间段内的导弹位置和速度误差。曲线拟合误差系数用于根据公式计算导弹烧毁后作为时间函数的导弹轨道方差。</t>
         </is>
@@ -1003,7 +999,7 @@
           <t>The curve-fit segment is chosen whose data start/end-time interval bounds the elapsed time from missile final burnout. The track covariance is then transformed into ECI coordinates for reporting.</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>选择曲线拟合段，其数据开始时间间隔限定了导弹最终烧毁的时间。然后将轨道协方差转化为ECI坐标，以便报告。</t>
         </is>
@@ -1015,7 +1011,7 @@
           <t>The midcourse track messages will begin at the user-defined message start time, which is defined relative to missile burnout, provided the track error data have been specified for the proper targets or the DFD versus number of reporting sources have been defined. The messages will continue to be sent at the defined update interval for the duration of the target’s track as long as the missile is still alive. When the time since missile burnout exceeds the time entries in the userdefined data tables or the end time of the final curve fit segment, the track is assumed to have achieved steady state and the last table entry or last curve fit segment is used for defining the covariance for the remainder of the track messages.</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="1" t="inlineStr">
         <is>
           <t>中程跟踪信息将在用户定义的信息开始时间开始，该时间是相对于导弹烧毁而定义的，条件是为适当的目标指定了跟踪误差数据，或定义了DFD与报告源的数量。只要导弹还活着，在目标的跟踪时间内，消息将以定义的更新间隔继续发送。当导弹烧毁后的时间超过用户定义的数据表中的时间条目或最后一个曲线拟合段的结束时间时，则假定该轨道已达到稳定状态，并使用最后一个表条目或最后一个曲线拟合段来定义其余轨道信息的协方差。</t>
         </is>
@@ -1027,7 +1023,7 @@
           <t>The improvement in the track covariance as a function of time since missile burnout and/or DFD yielded by multi-sensor coverage will aid in sensor cueing at greater ranges due to reduced search volumes obtained from the improved target positional uncertainty.</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="1" t="inlineStr">
         <is>
           <t>多传感器覆盖所产生的作为导弹烧毁后时间函数的轨道协方差和或DFD的改进，将有助于传感器在更远的距离上进行提示，因为改进后的目标位置不确定性可减少搜索量。</t>
         </is>
@@ -1039,7 +1035,7 @@
           <t>4.7.6.2.7 Battle Damage Assessment</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="1" t="inlineStr">
         <is>
           <t>4.7.6.2.7 战损评估</t>
         </is>
@@ -1051,7 +1047,7 @@
           <t>Battle Damage Assessment (BDA) is an automatic capability driven by a target being attacked. BDA is the determination of a target as being dead or alive. Accuracy of assessment is modeled as a probability draw to determine if a dead target is assessed as dead or an alive target as alive based on the target type and the confidence level of the data. If the Intel CAC has track on a target that is attacked, it will attempt to perform BDA, provided that the current time is between the maximum and minimum times for BDA, as input by the user. If the Intel CAC has updated the track within this window, and the track has a confidence level greater than the specified minimum, then BDA is performed. If the data are of insufficient confidence level, the track was not updated within this window, or the current time is not within this window, the Intel CAC requests that a Ground Attacker Commander or a ground-capable Flexible Commander send an AGAttacker to survey the target.</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="1" t="inlineStr">
         <is>
           <t>战损评估(BDA)是一种由被攻击目标驱动的自动能力。BDA是确定一个目标是死是活。评估的精确性是以概率抽签的方式进行建模，根据目标类型和数据的置信度来确定是将死亡目标评估为死亡，还是将活着目标评估为活着。如果英特尔CAC对被攻击的目标有跟踪，则会尝试执行BDA，但前提是当前时间在用户输入的BDA的最大和最小时间之间。如果英特尔CAC在这个窗口内更新了轨迹，且轨迹的置信度大于指定的最小值，则执行BDA。如果数据的置信度不够，轨道没有在这个窗口内更新，或者当前时间不在这个窗口内，则英特尔CAC要求地面攻击指挥官或具有地面能力的灵活指挥官派出AGA攻击者对目标进行勘察。</t>
         </is>
@@ -1063,7 +1059,7 @@
           <t>4.7.6.2.8 Flash Message Generation</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="1" t="inlineStr">
         <is>
           <t>4.7.6.2.8 闪存信息的生成</t>
         </is>
@@ -1075,7 +1071,7 @@
           <t>After a flash track has been received from a sensor, the Intel CAC ruleset has the capability to add a time delay to the flash message. This delay is calculated from the user specified mean and sigma time using a user-specified distribution. Both the mean and sigma are in seconds. If randomness is eliminated, the mean value is used as the delay</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="1" t="inlineStr">
         <is>
           <t>从传感器接收到闪光灯轨迹后，英特尔CAC规则集能够为闪光灯消息添加一个时间延迟。该延迟是使用用户指定的分布从用户指定的平均值和西格玛时间计算出来的。平均值和西格玛的单位都是秒。如果消除了随机性，则使用平均值作为延时</t>
         </is>
@@ -1087,7 +1083,7 @@
           <t>The Intel CAC also has the ability to add track location error to the flash message based upon the target type. It is two sided; one error is true Northing, while the other is true Easting. This error is calculated with a random number draw from a user-defined distribution. If randomness is eliminated, values entered for mean are used for the Northing and Easting track location errors.</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="1" t="inlineStr">
         <is>
           <t>英特尔CAC还可以根据目标类型在闪电信息中添加轨迹位置错误。它是双面的；一个错误是真正的北纬，而另一个是真正的东经。这个误差是用从用户定义的分布中随机抽取的数字计算的。如果消除了随机性，则北纬和东经轨迹位置误差将使用输入的平均值。</t>
         </is>
@@ -1099,7 +1095,7 @@
           <t>The Intel CAC will only add error to the flash location if Track Error is selected on the Flash Message window and the flash track matches one of the userspecified target types. The potentially errored flash message is then transmitted on any of the intel center’s networks based on when the flash message was received by the intel center plus any delay specified by the user.</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="1" t="inlineStr">
         <is>
           <t>只有在Flash消息窗口上选择Track Error，并且Flash轨迹与用户指定的目标类型之一相匹配时，英特尔CAC才会将错误添加到Flash位置。然后，根据英特尔中心收到闪电信息的时间加上用户指定的任何延迟，潜在出错的闪电信息就会在英特尔中心的任何网络上传输。</t>
         </is>
@@ -1111,7 +1107,7 @@
           <t>4.7.6.2.9 Intel CAC Commanded Track Update</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="1" t="inlineStr">
         <is>
           <t>4.7.6.2.9 英特尔CAC指令轨道更新</t>
         </is>
@@ -1123,7 +1119,7 @@
           <t>The Intel CAC requests a commanded track update from a Ground Attacker Commander when a BDA request is received for a track number unknown to the Intel CAC. The commanded track update message contains the track data for the requested track number as well as the data contained in the previous command on the track. When the Intel CAC receives the update message, it first processes the track information into its track file. The track data processing is detailed in Section 4.6. Once the track data has been processed, the platform then processes the original command message for which this track was requested.</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="1" t="inlineStr">
         <is>
           <t>当收到对英特尔CAC未知轨道号的BDA请求时，英特尔CAC向地面攻击者指挥官请求指令式轨道更新。指令轨道更新消息中包含了请求轨道号的轨道数据以及之前对该轨道的指令中包含的数据。英特尔CAC收到更新消息后，首先将轨道信息处理到其轨道文件中。轨迹数据的处理详见4.6节。轨道数据处理完毕后，平台再对请求该轨道的原始命令报文进行处理。</t>
         </is>
@@ -1135,7 +1131,7 @@
           <t>4.7.6.2.10 Intel CAC Installation Message Generation</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="1" t="inlineStr">
         <is>
           <t>4.7.6.2.10 英特尔CAC安装消息的生成</t>
         </is>
@@ -1161,7 +1157,7 @@
           <t>4.7.6.2.11 Intel CAC NBC Message Generation</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" s="1" t="inlineStr">
         <is>
           <t>4.7.6.2.11 英特尔CAC NBC信息生成</t>
         </is>
@@ -1173,7 +1169,7 @@
           <t>The Intel CAC ruleset has the ability to process and disseminate NBC information as described in section 4.6.14. For NBC messages, the Classes of Interest list is not used. Only the parameters as specified on the NBC Track Options window are relevant for NBC Message handling and dissemination.</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="1" t="inlineStr">
         <is>
           <t>Intel CAC规则集具有处理和传播NBC信息的能力，如4.6.14节所述。对于NBC信息，不使用兴趣类列表。只有NBC跟踪选项窗口中指定的参数才与NBC信息处理和传播有关。</t>
         </is>
@@ -1185,7 +1181,7 @@
           <t>4.7.6.3 Intel CAC System Configuration</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="1" t="inlineStr">
         <is>
           <t>4.7.6.3 Intel CAC系统配置</t>
         </is>
@@ -1197,7 +1193,7 @@
           <t>The Intel CAC ruleset is designed to be used on ground systems. A communications device is required. Sensors and weapons are not used. The Intel CAC cannot be a commander, flight leader, or wingman. Intel CAC cannot have a commander. Targets and assets are not used.</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" s="1" t="inlineStr">
         <is>
           <t>英特尔CAC规则集设计用于地面系统。需要一个通信设备。不使用传感器和武器。Intel CAC不能是指挥官、飞行队长或僚机。英特尔CAC不能有指挥官。不使用目标和资产。</t>
         </is>
@@ -1209,7 +1205,7 @@
           <t>4.7.6.4 Intel CAC Network Recommendations</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" s="1" t="inlineStr">
         <is>
           <t>4.7.6.4 英特尔CAC网络建议</t>
         </is>
@@ -1221,7 +1217,7 @@
           <t>The Intel CAC should have incoming links of any network type with message class track from any track source that will be supplying data on the desired target type. For example, to act as the EWDPC, track information on ballistic missiles will need to be sent to the platform operating with this ruleset. The Intel CAC can also have incoming links with message classes intel and track from another Intel CAC. Another type of link can be an incoming link with message class intel from a Flexible Commander. Recommended outgoing links are simplex and broadcast networks with message classes track and intel going to such players as another Intel CAC, an SSM Commander, a Flexible Commander, a Flexible SAM, or a Ground Attacker Commander.</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" s="1" t="inlineStr">
         <is>
           <t>英特尔CAC应该有任何网络类型的传入链路，其消息类跟踪来自任何将提供所需目标类型数据的跟踪源。例如，为了充当EWDPC，需要将弹道导弹的跟踪信息发送到使用该规则集运行的平台。英特尔CAC也可以有来自另一个英特尔CAC的消息类英特尔和跟踪的传入链接。另一种类型的链路可以是来自灵活指挥官的带有消息类intel的传入链路。推荐的出站链接是单工和广播网络，信息类别为跟踪和英特尔，去往另一个英特尔指挥中心、一个SSM指挥官、一个灵活指挥官、一个灵活萨姆或一个地面攻击者指挥官。</t>
         </is>
@@ -1233,7 +1229,7 @@
           <t>For BDA to be performed correctly, all platforms involved must be netted together. It is recommended that duplex track links be set up between the Intel CAC and the AGAttackers that are providing the BDA surveillance information. A duplex network with message classes track and command should link the Intel CAC and the Ground Attacker Commanders or ground-capable Flexible Commanders it will use for BDA requests.</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="1" t="inlineStr">
         <is>
           <t>为了正确执行BDA，所有涉及的平台都必须网罗在一起。建议在英特尔CAC和提供BDA监视信息的AGA攻击者之间建立双工轨道链路。具有信息类跟踪和命令的双工网络应将英特尔CAC和它将用于BDA请求的地面攻击者指挥官或具有地面能力的灵活指挥官联系起来。</t>
         </is>
